--- a/03_ObjectExample/Example_rectangle/RectangleExample.xlsx
+++ b/03_ObjectExample/Example_rectangle/RectangleExample.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rectangle Class - Rectangle.js" sheetId="1" r:id="rId1"/>
+    <sheet name="Rectangle Object rect1" sheetId="2" r:id="rId2"/>
+    <sheet name="Rectangle Object rect2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>Order your Rectangle Form</t>
   </si>
@@ -326,6 +328,18 @@
       </rPr>
       <t>(this check is this Rectangle considered to be bigger in Area compare to another Rectangle given)</t>
     </r>
+  </si>
+  <si>
+    <t>rect1</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>rect2</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
 </sst>
 </file>
@@ -433,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -461,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,4 +866,242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>